--- a/Java_pograms.xlsx
+++ b/Java_pograms.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASHOK\git\practiceNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB562B-FD33-4D31-898C-59219D99C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822132D-FF8E-4EA6-8445-4DEE0FB7EB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algarithms" sheetId="1" r:id="rId1"/>
     <sheet name="DataStractures" sheetId="2" r:id="rId2"/>
-    <sheet name="Java 8 Programs" sheetId="3" r:id="rId3"/>
+    <sheet name="Programs" sheetId="4" r:id="rId3"/>
+    <sheet name="Java 8 Programs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,12 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Sorting </t>
   </si>
   <si>
     <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Write a program to get employee with minium salary using stream API</t>
+  </si>
+  <si>
+    <t>secound maxiumum integer from List using Stream</t>
+  </si>
+  <si>
+    <t>find number missed number in natural order upto 10.</t>
   </si>
 </sst>
 </file>
@@ -361,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -396,13 +406,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95E00AC-40BB-4F8C-919F-E7FFFD621EAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6863F102-24ED-406A-8092-7546723E1D08}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95E00AC-40BB-4F8C-919F-E7FFFD621EAD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>